--- a/biology/Histoire de la zoologie et de la botanique/Émile_Blanchard/Émile_Blanchard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Émile_Blanchard/Émile_Blanchard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Blanchard</t>
+          <t>Émile_Blanchard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Émile Blanchard est un  zoologiste français né le 7 mars 1819[1] à Paris et mort le 11 février 1900 dans cette même ville.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Émile Blanchard est un  zoologiste français né le 7 mars 1819 à Paris et mort le 11 février 1900 dans cette même ville.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Blanchard</t>
+          <t>Émile_Blanchard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Émile-Théophile Blanchard, est peintre naturaliste et initie très tôt son fils à l’histoire naturelle.
 Dès ses 14 ans, Victor Audouin (1797-1841), l’accueille dans son laboratoire du Muséum national d'histoire naturelle de Paris. En 1838, il devient préparateur dans cet établissement, puis, en 1841, aide-naturaliste. Il accompagne alors Henri Milne-Edwards (1800-1885) et Jean Louis Armand de Quatrefages de Bréau (1810-1892) en Sicile lors d’une mission d’étude de la faune marine.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Blanchard</t>
+          <t>Émile_Blanchard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait paraître en 1845 une Histoire des insectes (puis Métamorphoses, Mœurs et Instincts des insectes paru en 1868) et, en 1854-1856 une Zoologie agricole. Ce dernier ouvrage est remarquable : il présente de façon précise et bien illustrée par le père d’Émile Blanchard, les espèces alors dites « nuisibles » et les dégâts causés sur les différentes plantes cultivées.
-En étudiant les traces fossiles de la grande faune préhistorique, il s'inquiète aussi des capacités des chasseurs à éliminer nombre d'espèces depuis la préhistoire, et publie en 1870 un texte sur les Animaux disparus depuis les âges historiques[2]
+En étudiant les traces fossiles de la grande faune préhistorique, il s'inquiète aussi des capacités des chasseurs à éliminer nombre d'espèces depuis la préhistoire, et publie en 1870 un texte sur les Animaux disparus depuis les âges historiques
 Il fait paraître un atlas de l'anatomie des vertébrés de 1852 à 1864. Cette publication lui donne espoir d’obtenir la chaire des reptiles et des poissons au Muséum, laissée vacante par la mort d'Auguste Duméril (1812-1870), mais c’est finalement Léon Vaillant (1834-1914) qui est choisi. Il perd progressivement la vue à partir de 1860 et devient aveugle en 1890.
-Également intéressé par l'ichtyologie, il publie en 1880 un ouvrage sur les poissons d'eau douce[3]
+Également intéressé par l'ichtyologie, il publie en 1880 un ouvrage sur les poissons d'eau douce
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile_Blanchard</t>
+          <t>Émile_Blanchard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il est élu en 1862 à l’Académie des sciences.
 Il est membre de la Comité des travaux historiques et scientifiques de 1860 à 1880.</t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89mile_Blanchard</t>
+          <t>Émile_Blanchard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Officier de la Légion d'honneur, en 1875[4].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Officier de la Légion d'honneur, en 1875.</t>
         </is>
       </c>
     </row>
